--- a/Ti-1.xlsx
+++ b/Ti-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\1msspR1\增强\上传\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\增强\上传\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061ACA7E-6627-430F-A387-1075F1CBC73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7BA015-8F99-4006-8077-3078A61CFC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TI-1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="TI-2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI-1'!$A$1:$K$244</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI-1'!$A$1:$J$244</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TI17'!$A$1:$M$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TI-2'!$A$1:$K$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TI-2'!$A$1:$I$146</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -480,10 +480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="N220" sqref="N220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +529,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -586,7 +587,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -615,7 +616,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -644,7 +645,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -673,7 +674,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -702,7 +703,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -731,7 +732,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -789,7 +790,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -818,7 +819,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -847,7 +848,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -963,7 +964,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1195,7 +1196,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1253,7 +1254,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1398,7 +1399,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1688,7 +1689,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2181,7 +2182,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2471,7 +2472,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3718,7 +3719,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3921,7 +3922,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3979,7 +3980,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4008,7 +4009,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4037,7 +4038,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4066,7 +4067,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4095,7 +4096,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4124,7 +4125,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4182,7 +4183,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4356,7 +4357,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4501,7 +4502,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4588,7 +4589,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4704,7 +4705,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4733,7 +4734,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4762,7 +4763,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4791,7 +4792,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4849,7 +4850,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4878,7 +4879,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4936,7 +4937,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5081,7 +5082,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5110,7 +5111,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5284,7 +5285,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5371,7 +5372,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5400,7 +5401,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5429,7 +5430,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5487,7 +5488,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5516,7 +5517,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5574,7 +5575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5632,7 +5633,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5690,7 +5691,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5748,7 +5749,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5777,7 +5778,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5806,7 +5807,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5922,7 +5923,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5951,7 +5952,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6009,7 +6010,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6067,7 +6068,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6125,7 +6126,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6212,7 +6213,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6241,7 +6242,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6299,7 +6300,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6328,7 +6329,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6377,7 +6378,7 @@
         <v>1197000000</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H203">
         <v>60</v>
@@ -6415,7 +6416,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6444,7 +6445,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6473,7 +6474,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6502,7 +6503,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6531,7 +6532,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6589,7 +6590,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6647,7 +6648,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6676,7 +6677,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6734,7 +6735,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6763,7 +6764,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6792,7 +6793,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6821,7 +6822,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6908,7 +6909,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6937,7 +6938,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6966,7 +6967,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6995,7 +6996,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -7024,7 +7025,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -7053,7 +7054,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -7082,7 +7083,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -7111,7 +7112,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -7140,7 +7141,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -7169,7 +7170,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -7227,7 +7228,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -7256,7 +7257,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -7285,7 +7286,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -7314,7 +7315,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -7343,7 +7344,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -7372,7 +7373,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -7401,7 +7402,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -7430,7 +7431,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -7576,6 +7577,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J244" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="greaterThanOrEqual" val="1000000000"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7585,7 +7593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761BDAC2-2D79-4CE5-B1AF-A6CCFF9496F1}">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
@@ -11322,11 +11330,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF32E76-63F6-4DE0-B3DA-A405D917240C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="M114" sqref="M114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9:V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11360,7 +11367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11418,7 +11425,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11447,7 +11454,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11476,7 +11483,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11505,7 +11512,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11534,7 +11541,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11563,7 +11570,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11621,7 +11628,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11650,7 +11657,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11679,7 +11686,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11795,7 +11802,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11853,7 +11860,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11882,7 +11889,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11911,7 +11918,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11940,7 +11947,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11969,7 +11976,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11998,7 +12005,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12027,7 +12034,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12085,7 +12092,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12114,7 +12121,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12143,7 +12150,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12172,7 +12179,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12201,7 +12208,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12230,7 +12237,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12259,7 +12266,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12288,7 +12295,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12317,7 +12324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12346,7 +12353,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12404,7 +12411,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12433,7 +12440,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12491,7 +12498,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12520,7 +12527,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12578,7 +12585,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12607,7 +12614,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12781,7 +12788,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12810,7 +12817,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12839,7 +12846,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12868,7 +12875,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12897,7 +12904,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12926,7 +12933,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12955,7 +12962,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13013,7 +13020,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13071,7 +13078,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13100,7 +13107,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13245,7 +13252,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13303,7 +13310,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -13332,7 +13339,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -13390,7 +13397,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -13419,7 +13426,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -13477,7 +13484,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -13506,7 +13513,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -13535,7 +13542,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -13564,7 +13571,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -13593,7 +13600,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -13622,7 +13629,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -13651,7 +13658,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -13680,7 +13687,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -13709,7 +13716,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -13738,7 +13745,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -13767,7 +13774,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -13796,7 +13803,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -13825,7 +13832,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -13883,7 +13890,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -13912,7 +13919,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -13970,7 +13977,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>124</v>
       </c>
@@ -13999,7 +14006,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>125</v>
       </c>
@@ -14028,7 +14035,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>126</v>
       </c>
@@ -14057,7 +14064,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>127</v>
       </c>
@@ -14115,7 +14122,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>129</v>
       </c>
@@ -14202,7 +14209,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>132</v>
       </c>
@@ -14260,7 +14267,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>134</v>
       </c>
@@ -14347,7 +14354,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>137</v>
       </c>
@@ -14376,7 +14383,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>138</v>
       </c>
@@ -14405,7 +14412,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>139</v>
       </c>
@@ -14434,7 +14441,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>140</v>
       </c>
@@ -14463,7 +14470,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>141</v>
       </c>
@@ -14492,7 +14499,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>142</v>
       </c>
@@ -14521,7 +14528,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>143</v>
       </c>
@@ -14550,7 +14557,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>184</v>
       </c>
@@ -14637,7 +14644,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>187</v>
       </c>
@@ -14666,7 +14673,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>188</v>
       </c>
@@ -14724,7 +14731,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>190</v>
       </c>
@@ -14782,7 +14789,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>192</v>
       </c>
@@ -14811,7 +14818,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>193</v>
       </c>
@@ -14840,7 +14847,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>194</v>
       </c>
@@ -14927,7 +14934,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>197</v>
       </c>
@@ -14956,7 +14963,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>198</v>
       </c>
@@ -15014,7 +15021,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>200</v>
       </c>
@@ -15043,7 +15050,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>201</v>
       </c>
@@ -15072,7 +15079,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>202</v>
       </c>
@@ -15092,7 +15099,7 @@
         <v>1197000000</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130">
         <v>60</v>
@@ -15130,7 +15137,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>91</v>
       </c>
@@ -15159,7 +15166,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>92</v>
       </c>
@@ -15188,7 +15195,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>93</v>
       </c>
@@ -15217,7 +15224,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>94</v>
       </c>
@@ -15246,7 +15253,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>95</v>
       </c>
@@ -15275,7 +15282,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>96</v>
       </c>
@@ -15304,7 +15311,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>97</v>
       </c>
@@ -15333,7 +15340,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>98</v>
       </c>
@@ -15362,7 +15369,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>99</v>
       </c>
@@ -15420,7 +15427,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>101</v>
       </c>
@@ -15449,7 +15456,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>102</v>
       </c>
@@ -15507,7 +15514,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>104</v>
       </c>
@@ -15566,13 +15573,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K146" xr:uid="{3AF32E76-63F6-4DE0-B3DA-A405D917240C}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
